--- a/source.xlsx
+++ b/source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="143">
   <si>
     <t xml:space="preserve">№пп</t>
   </si>
@@ -38,9 +38,6 @@
     <t xml:space="preserve">код показателя</t>
   </si>
   <si>
-    <t xml:space="preserve">Показатель, для которого указан единственный вариант значения, которое не может меняться</t>
-  </si>
-  <si>
     <t xml:space="preserve">Битум нефтяной дорожный по ГОСТ 22245-90</t>
   </si>
   <si>
@@ -50,43 +47,28 @@
     <t xml:space="preserve">БНД 60/90 или 90/130</t>
   </si>
   <si>
-    <t xml:space="preserve">Показатель, для которого установлены минимальное значение границы диапазона.Участник указывает соответствующее диапазоное значение</t>
-  </si>
-  <si>
     <t xml:space="preserve">Глубина проникания иглы при 0°С, 0,1 мм  </t>
   </si>
   <si>
     <t xml:space="preserve">не менее 20   </t>
   </si>
   <si>
-    <t xml:space="preserve">Показатель, для которого установлены максимальное значение границы диапазона.Участник указывает соответствующее диапазоное значение</t>
-  </si>
-  <si>
     <t xml:space="preserve">Температура размягчения по кольцу и шару, °С  </t>
   </si>
   <si>
     <t xml:space="preserve">не ниже 43 </t>
   </si>
   <si>
-    <t xml:space="preserve">Показатель, для которого установлены максимальное и минимальные значения границы диапазона.Участник указывает соответствующее диапазоное значение</t>
-  </si>
-  <si>
     <t xml:space="preserve">Растяжимость при 25°С, см</t>
   </si>
   <si>
     <t xml:space="preserve">не менее 55 </t>
   </si>
   <si>
-    <t xml:space="preserve">Показатель, для которого указаны варианты значений, которые не могут меняться. Участник указывает соответствующее конкретное значение</t>
-  </si>
-  <si>
     <t xml:space="preserve">Растяжимость при 0°С, см</t>
   </si>
   <si>
     <t xml:space="preserve">не менее 3,5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Показатель, для которого установлены максимальное и (или) минимальное значение. Участник указыват соотвествующее конкретное значение.</t>
   </si>
   <si>
     <t xml:space="preserve">Температура хрупкости, °С</t>
@@ -472,6 +454,9 @@
     <t xml:space="preserve">Сталь с массовой долей углерода свыше 0,35 до 0,65 включительно или суммарной массовой долей легирующих элементов свыше 2,0 до 5,0 включительно или сталь с массовой долей углерода до 0,35 включительно и суммарной массовой долей легирующих элементов до 2,0 включительно или сталь с массовой долей углерода свыше 0,65 или суммарной массовой долей легирующих элементов свыше 5,0</t>
   </si>
   <si>
+    <t xml:space="preserve">Показатель, для которого указан единственный вариант значения, которое не может меняться</t>
+  </si>
+  <si>
     <t xml:space="preserve">Показатель, для которого установлены минимальное значение границы диапазона. Участник указывает соответствующее диапазонное значение</t>
   </si>
   <si>
@@ -479,6 +464,9 @@
   </si>
   <si>
     <t xml:space="preserve">Показатель, для которого установлены максимальное и минимальные значения границы диапазона. Участник указывает соответствующее диапазонное значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Показатель, для которого указаны варианты значений, которые не могут меняться. Участник указывает соответствующее конкретное значение</t>
   </si>
   <si>
     <t xml:space="preserve">Показатель, для которого установлены максимальное и (или) минимальное значение. Участник указывает соответствующее конкретное значение.</t>
@@ -606,10 +594,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -646,6 +630,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -663,13 +651,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.15"/>
@@ -683,1090 +671,1061 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E3" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>368</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E11" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E12" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="n">
-        <v>368</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E13" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E14" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E15" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="2" t="s">
+      <c r="E16" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>46</v>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>50</v>
+    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>52</v>
+    <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>54</v>
+    <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>58</v>
+    <row r="25" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>60</v>
+    <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>62</v>
+    <row r="27" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="E31" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="s">
+      <c r="E32" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="s">
+      <c r="E33" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6" t="s">
+      <c r="E34" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="s">
+      <c r="E35" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
+      <c r="E36" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6" t="s">
+      <c r="E37" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6" t="s">
+      <c r="E38" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D39" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6" t="s">
+      <c r="D40" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6" t="s">
+      <c r="E41" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6" t="s">
+      <c r="E42" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E38" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E43" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="D44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="6" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="8" t="s">
+      <c r="E48" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8" t="s">
+      <c r="D49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="8" t="s">
+      <c r="D50" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>113</v>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>115</v>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>117</v>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>107</v>
+      <c r="B55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>109</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>111</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6" t="s">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6" t="s">
+      <c r="E59" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E61" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" s="11" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B67" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="E70" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="E71" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="E72" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E68" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="D73" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E69" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="34.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6" t="s">
+      <c r="E73" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E70" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="E74" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="D75" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="12" t="s">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E72" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="D76" s="6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="D77" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E73" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" s="7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E75" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E76" s="2" t="n">
+      <c r="E77" s="2" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="B12:B27"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="B28:B41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A13:A28"/>
+    <mergeCell ref="B13:B28"/>
+    <mergeCell ref="A29:A42"/>
+    <mergeCell ref="B29:B42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1785,8 +1744,8 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1800,48 +1759,48 @@
       <c r="A1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
+      <c r="B1" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>143</v>
+      <c r="B2" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>144</v>
+      <c r="B3" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="42.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>145</v>
+      <c r="B4" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="42.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
+      <c r="B5" s="12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>146</v>
+      <c r="B6" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
